--- a/import-result.xlsx
+++ b/import-result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>row</t>
   </si>
@@ -27,43 +27,28 @@
     <t>order_id</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5001</t>
-  </si>
-  <si>
-    <t>5002</t>
-  </si>
-  <si>
-    <t>5003</t>
-  </si>
-  <si>
-    <t>5004</t>
-  </si>
-  <si>
-    <t>5005</t>
-  </si>
-  <si>
-    <t>5006</t>
-  </si>
-  <si>
-    <t>5007</t>
-  </si>
-  <si>
-    <t>5008</t>
-  </si>
-  <si>
-    <t>5009</t>
-  </si>
-  <si>
-    <t>5010</t>
-  </si>
-  <si>
-    <t>5011</t>
+    <t>4262</t>
+  </si>
+  <si>
+    <t>4257</t>
+  </si>
+  <si>
+    <t>4227</t>
+  </si>
+  <si>
+    <t>4216</t>
+  </si>
+  <si>
+    <t>4188</t>
+  </si>
+  <si>
+    <t>4176</t>
+  </si>
+  <si>
+    <t>4171</t>
+  </si>
+  <si>
+    <t>4156</t>
   </si>
 </sst>
 </file>
@@ -471,7 +456,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
@@ -498,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>68</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -509,7 +494,73 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>69</v>
+        <v>895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -520,7 +571,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
@@ -539,127 +590,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>65</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
